--- a/chucnang/srs/xemsuabc/testcase_xemcapnhatbc.xlsx
+++ b/chucnang/srs/xemsuabc/testcase_xemcapnhatbc.xlsx
@@ -32095,19 +32095,19 @@
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E11:E12"/>
     <mergeCell ref="E13:E16"/>
+    <mergeCell ref="E17:E19"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="E22:E24"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="J8:J27"/>
-    <mergeCell ref="L8:L27"/>
-    <mergeCell ref="M23:M27"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="J8:J27"/>
+    <mergeCell ref="L8:L27"/>
     <mergeCell ref="M8:M20"/>
+    <mergeCell ref="M23:M27"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/chucnang/srs/xemsuabc/testcase_xemcapnhatbc.xlsx
+++ b/chucnang/srs/xemsuabc/testcase_xemcapnhatbc.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="187">
   <si>
     <t>Test case xem, cập nhật báo cáo công việc</t>
   </si>
@@ -185,6 +185,52 @@
     <t>Hoàn thành công việc 1</t>
   </si>
   <si>
+    <t>thời gian bắt đầu(kiểu ngày)</t>
+  </si>
+  <si>
+    <t>thời gian bắt đầu không trống</t>
+  </si>
+  <si>
+    <t>Nếu trống hiển thị lỗi form nhập thời gian bắt đầu "Thời gian bắt đầu không được trống"</t>
+  </si>
+  <si>
+    <t>kiểu ngày</t>
+  </si>
+  <si>
+    <t>Nếu khác kiểu ngày hiển thị lỗi form nhập thời gian bắt đầu "Thời gian phải là kiểu ngày dd/mm/yyyy"</t>
+  </si>
+  <si>
+    <t>ngày hợp lệ dd/mm/yyyy</t>
+  </si>
+  <si>
+    <t>thời gian kết thúc(kiểu ngày)</t>
+  </si>
+  <si>
+    <t>thời gian hoàn thành dự kiến không trống</t>
+  </si>
+  <si>
+    <t>Nếu trống hiển thị lỗi form chọn thời gian hoàn thành dự kiến "Thời gian hoàn thành dự kiến không được trống"</t>
+  </si>
+  <si>
+    <t>Nếu khác kiểu ngày hiển thị lỗi form chọn thời gian hoàn thành dự kiến "Thời gian phải là kiểu ngày dd/mm/yyyy"</t>
+  </si>
+  <si>
+    <t>lớn hơn ngày bắt đầu</t>
+  </si>
+  <si>
+    <t>Nếu nhỏ hơn ngày bắt đầu hiển thị lỗi form chọn thời gian hoàn thành dự kiến "Thời gian hoàn thành phải lớn hơn ngày bắt đầu"</t>
+  </si>
+  <si>
+    <t>nhỏ hơn ngày hoàn thành dự kiến của kế hoạch</t>
+  </si>
+  <si>
+    <t>Ngày hoàn thành dự kiến cuả kế hoạch: 15/3/2022
+Thời gian hoàn thành công việc: 10/3/2022</t>
+  </si>
+  <si>
+    <t>Hiển thị lỗi form thời gian hoàn thành dự kiến "Thời gian hoàn thành phải nhỏ hơn hoàn thành dự kiến của kế hoạch"</t>
+  </si>
+  <si>
     <t>giờ làm việc</t>
   </si>
   <si>
@@ -197,7 +243,7 @@
     <t>&gt;0</t>
   </si>
   <si>
-    <t>Nếu trọng số &lt;0 hiển thị lỗi ô nhập giờ làm việc "giờ làm việc không âm"</t>
+    <t>Nếu giờ làm việc &lt;0 hiển thị lỗi ô nhập giờ làm việc "giờ làm việc không âm"</t>
   </si>
   <si>
     <t>tiến độ</t>
@@ -434,6 +480,106 @@
   <si>
     <t xml:space="preserve">- Mặc định chưa đăng nhập </t>
   </si>
+  <si>
+    <t>GUI_XSBC18</t>
+  </si>
+  <si>
+    <t>Kiểm tra thời gian bắt đầu không trống</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Người dùng đã đăng nhập với vai trò trưởng đơn vị </t>
+  </si>
+  <si>
+    <t>1.Kiểm tra thời gian bắt đầu(kiểu ngày) trống</t>
+  </si>
+  <si>
+    <t>Thời gian bắt đầu không được trống</t>
+  </si>
+  <si>
+    <t>GUI_XSBC19</t>
+  </si>
+  <si>
+    <t>Kiểm tra thời gian kiểu ngày</t>
+  </si>
+  <si>
+    <t>1.Kiểm tra thời gian kiểu ngày</t>
+  </si>
+  <si>
+    <t>15a/2/2023</t>
+  </si>
+  <si>
+    <t>Thời gian phải là kiểu ngày dd/mm/yyyy</t>
+  </si>
+  <si>
+    <t>GUI_XSBC20</t>
+  </si>
+  <si>
+    <t>Kiểm tra ngày hợp lệ dd/mm/yyyy</t>
+  </si>
+  <si>
+    <t>1.Kiểm tra ngày hợp lệ dd/mm/yyyy</t>
+  </si>
+  <si>
+    <t>GUI_XSBC21</t>
+  </si>
+  <si>
+    <t>Kiểm tra thời gian kết thúc trống</t>
+  </si>
+  <si>
+    <t>1.Kiểm tra thời gian kết thúc trống</t>
+  </si>
+  <si>
+    <t>thời gian kết thúc không được trống</t>
+  </si>
+  <si>
+    <t>GUI_XSBC22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra thời gian kết thúc khác kiểu ngày </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Kiểm tra thời gian kết thúc khác kiểu ngày </t>
+  </si>
+  <si>
+    <t>thời gian kết thúc dự kiến không được khác kiểu ngày</t>
+  </si>
+  <si>
+    <t>GUI_XSBC23</t>
+  </si>
+  <si>
+    <t>Kiểm tra thời gian kết thúc dự kiến nhỏ hơn ngày bắt đầu</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra thời gian kết thúc nhỏ hơn ngày bắt đầu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> thời gian kết thúc không thể nhỏ hơn ngày bắt đầu</t>
+  </si>
+  <si>
+    <t>GUI_XSBC24</t>
+  </si>
+  <si>
+    <t>Kiểm tra thời gian kết thúc nhỏ hơn ngày hoàn thành dự kiến của kế hoạch</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra thời gian kết thúc nhỏ hơn ngày hoàn thành dự kiến của kế hoạch</t>
+  </si>
+  <si>
+    <t>Ngày hoàn thành dự kiến cuả kế hoạch: 15/3/2022
+Thời gian hoàn thành công việc: 20/3/2022</t>
+  </si>
+  <si>
+    <t>thời gian kết thúc phải nhỏ hơn ngày hoàn thành dự kiến của kế hoạch</t>
+  </si>
+  <si>
+    <t>GUI_XSBC25</t>
+  </si>
+  <si>
+    <t>Kiểm tra thời gian kết thúc ngày hợp lệ dd/mm/yyyy</t>
+  </si>
+  <si>
+    <t>Kiểm tra thời gian kết thúc nhỏ hơn ngày bắt đầu</t>
+  </si>
 </sst>
 </file>
 
@@ -569,7 +715,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="60">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -651,6 +797,24 @@
     <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -691,6 +855,36 @@
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1613,21 +1807,21 @@
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19" t="s">
+      <c r="G20" s="30"/>
+      <c r="H20" s="30" t="s">
         <v>59</v>
       </c>
       <c r="I20" s="19"/>
       <c r="J20" s="21"/>
       <c r="K20" s="19"/>
       <c r="L20" s="21"/>
-      <c r="M20" s="25"/>
+      <c r="M20" s="21"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -1650,21 +1844,21 @@
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="19" t="s">
+      <c r="E21" s="21"/>
+      <c r="F21" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="29">
-        <v>-15.0</v>
+      <c r="G21" s="32" t="s">
+        <v>35</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="32" t="s">
         <v>61</v>
       </c>
       <c r="I21" s="19"/>
       <c r="J21" s="21"/>
       <c r="K21" s="19"/>
       <c r="L21" s="21"/>
-      <c r="M21" s="30"/>
+      <c r="M21" s="21"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -1687,21 +1881,19 @@
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="25"/>
+      <c r="F22" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19" t="s">
-        <v>64</v>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32" t="s">
+        <v>48</v>
       </c>
       <c r="I22" s="19"/>
       <c r="J22" s="21"/>
       <c r="K22" s="19"/>
       <c r="L22" s="21"/>
-      <c r="M22" s="19"/>
+      <c r="M22" s="21"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -1724,21 +1916,21 @@
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="19" t="s">
-        <v>60</v>
+      <c r="E23" s="33" t="s">
+        <v>63</v>
       </c>
-      <c r="G23" s="29">
-        <v>-15.0</v>
+      <c r="F23" s="32" t="s">
+        <v>64</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="G23" s="32"/>
+      <c r="H23" s="32" t="s">
         <v>65</v>
       </c>
       <c r="I23" s="19"/>
       <c r="J23" s="21"/>
       <c r="K23" s="19"/>
       <c r="L23" s="21"/>
-      <c r="M23" s="18"/>
+      <c r="M23" s="21"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -1761,15 +1953,15 @@
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="19" t="s">
+      <c r="E24" s="21"/>
+      <c r="F24" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="32" t="s">
         <v>66</v>
-      </c>
-      <c r="G24" s="29">
-        <v>20.0</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>48</v>
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="21"/>
@@ -1798,12 +1990,14 @@
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="21"/>
+      <c r="F25" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19" t="s">
+      <c r="G25" s="34">
+        <v>41275.0</v>
+      </c>
+      <c r="H25" s="32" t="s">
         <v>68</v>
       </c>
       <c r="I25" s="19"/>
@@ -1833,13 +2027,15 @@
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="21"/>
+      <c r="F26" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19" t="s">
+      <c r="G26" s="32" t="s">
         <v>70</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>71</v>
       </c>
       <c r="I26" s="19"/>
       <c r="J26" s="21"/>
@@ -1868,19 +2064,21 @@
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="31" t="s">
-        <v>71</v>
+      <c r="E27" s="25"/>
+      <c r="F27" s="31" t="s">
+        <v>62</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="14" t="s">
-        <v>72</v>
+      <c r="G27" s="34">
+        <v>45066.0</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>48</v>
       </c>
       <c r="I27" s="19"/>
-      <c r="J27" s="25"/>
+      <c r="J27" s="21"/>
       <c r="K27" s="19"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -1899,19 +2097,25 @@
       <c r="AC27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="19"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="25"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -1930,19 +2134,25 @@
       <c r="AC28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="35">
+        <v>-15.0</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29" s="19"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="36"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -1961,19 +2171,25 @@
       <c r="AC29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" s="19"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="19"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -1992,19 +2208,25 @@
       <c r="AC30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="35">
+        <v>-15.0</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" s="19"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="18"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -2023,19 +2245,25 @@
       <c r="AC31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" s="35">
+        <v>20.0</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" s="19"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -2054,19 +2282,23 @@
       <c r="AC32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="I33" s="19"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -2085,19 +2317,23 @@
       <c r="AC33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" s="19"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -2116,19 +2352,23 @@
       <c r="AC34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I35" s="19"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -2151,7 +2391,7 @@
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="E36" s="38"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -32092,22 +32332,272 @@
       <c r="AB1001" s="2"/>
       <c r="AC1001" s="2"/>
     </row>
+    <row r="1002">
+      <c r="A1002" s="2"/>
+      <c r="B1002" s="2"/>
+      <c r="C1002" s="2"/>
+      <c r="D1002" s="2"/>
+      <c r="E1002" s="2"/>
+      <c r="F1002" s="2"/>
+      <c r="G1002" s="2"/>
+      <c r="H1002" s="2"/>
+      <c r="I1002" s="2"/>
+      <c r="J1002" s="2"/>
+      <c r="K1002" s="2"/>
+      <c r="L1002" s="2"/>
+      <c r="M1002" s="2"/>
+      <c r="N1002" s="2"/>
+      <c r="O1002" s="2"/>
+      <c r="P1002" s="2"/>
+      <c r="Q1002" s="2"/>
+      <c r="R1002" s="2"/>
+      <c r="S1002" s="2"/>
+      <c r="T1002" s="2"/>
+      <c r="U1002" s="2"/>
+      <c r="V1002" s="2"/>
+      <c r="W1002" s="2"/>
+      <c r="X1002" s="2"/>
+      <c r="Y1002" s="2"/>
+      <c r="Z1002" s="2"/>
+      <c r="AA1002" s="2"/>
+      <c r="AB1002" s="2"/>
+      <c r="AC1002" s="2"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="2"/>
+      <c r="B1003" s="2"/>
+      <c r="C1003" s="2"/>
+      <c r="D1003" s="2"/>
+      <c r="E1003" s="2"/>
+      <c r="F1003" s="2"/>
+      <c r="G1003" s="2"/>
+      <c r="H1003" s="2"/>
+      <c r="I1003" s="2"/>
+      <c r="J1003" s="2"/>
+      <c r="K1003" s="2"/>
+      <c r="L1003" s="2"/>
+      <c r="M1003" s="2"/>
+      <c r="N1003" s="2"/>
+      <c r="O1003" s="2"/>
+      <c r="P1003" s="2"/>
+      <c r="Q1003" s="2"/>
+      <c r="R1003" s="2"/>
+      <c r="S1003" s="2"/>
+      <c r="T1003" s="2"/>
+      <c r="U1003" s="2"/>
+      <c r="V1003" s="2"/>
+      <c r="W1003" s="2"/>
+      <c r="X1003" s="2"/>
+      <c r="Y1003" s="2"/>
+      <c r="Z1003" s="2"/>
+      <c r="AA1003" s="2"/>
+      <c r="AB1003" s="2"/>
+      <c r="AC1003" s="2"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="2"/>
+      <c r="B1004" s="2"/>
+      <c r="C1004" s="2"/>
+      <c r="D1004" s="2"/>
+      <c r="E1004" s="2"/>
+      <c r="F1004" s="2"/>
+      <c r="G1004" s="2"/>
+      <c r="H1004" s="2"/>
+      <c r="I1004" s="2"/>
+      <c r="J1004" s="2"/>
+      <c r="K1004" s="2"/>
+      <c r="L1004" s="2"/>
+      <c r="M1004" s="2"/>
+      <c r="N1004" s="2"/>
+      <c r="O1004" s="2"/>
+      <c r="P1004" s="2"/>
+      <c r="Q1004" s="2"/>
+      <c r="R1004" s="2"/>
+      <c r="S1004" s="2"/>
+      <c r="T1004" s="2"/>
+      <c r="U1004" s="2"/>
+      <c r="V1004" s="2"/>
+      <c r="W1004" s="2"/>
+      <c r="X1004" s="2"/>
+      <c r="Y1004" s="2"/>
+      <c r="Z1004" s="2"/>
+      <c r="AA1004" s="2"/>
+      <c r="AB1004" s="2"/>
+      <c r="AC1004" s="2"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="2"/>
+      <c r="B1005" s="2"/>
+      <c r="C1005" s="2"/>
+      <c r="D1005" s="2"/>
+      <c r="E1005" s="2"/>
+      <c r="F1005" s="2"/>
+      <c r="G1005" s="2"/>
+      <c r="H1005" s="2"/>
+      <c r="I1005" s="2"/>
+      <c r="J1005" s="2"/>
+      <c r="K1005" s="2"/>
+      <c r="L1005" s="2"/>
+      <c r="M1005" s="2"/>
+      <c r="N1005" s="2"/>
+      <c r="O1005" s="2"/>
+      <c r="P1005" s="2"/>
+      <c r="Q1005" s="2"/>
+      <c r="R1005" s="2"/>
+      <c r="S1005" s="2"/>
+      <c r="T1005" s="2"/>
+      <c r="U1005" s="2"/>
+      <c r="V1005" s="2"/>
+      <c r="W1005" s="2"/>
+      <c r="X1005" s="2"/>
+      <c r="Y1005" s="2"/>
+      <c r="Z1005" s="2"/>
+      <c r="AA1005" s="2"/>
+      <c r="AB1005" s="2"/>
+      <c r="AC1005" s="2"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="2"/>
+      <c r="B1006" s="2"/>
+      <c r="C1006" s="2"/>
+      <c r="D1006" s="2"/>
+      <c r="E1006" s="2"/>
+      <c r="F1006" s="2"/>
+      <c r="G1006" s="2"/>
+      <c r="H1006" s="2"/>
+      <c r="I1006" s="2"/>
+      <c r="J1006" s="2"/>
+      <c r="K1006" s="2"/>
+      <c r="L1006" s="2"/>
+      <c r="M1006" s="2"/>
+      <c r="N1006" s="2"/>
+      <c r="O1006" s="2"/>
+      <c r="P1006" s="2"/>
+      <c r="Q1006" s="2"/>
+      <c r="R1006" s="2"/>
+      <c r="S1006" s="2"/>
+      <c r="T1006" s="2"/>
+      <c r="U1006" s="2"/>
+      <c r="V1006" s="2"/>
+      <c r="W1006" s="2"/>
+      <c r="X1006" s="2"/>
+      <c r="Y1006" s="2"/>
+      <c r="Z1006" s="2"/>
+      <c r="AA1006" s="2"/>
+      <c r="AB1006" s="2"/>
+      <c r="AC1006" s="2"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="2"/>
+      <c r="B1007" s="2"/>
+      <c r="C1007" s="2"/>
+      <c r="D1007" s="2"/>
+      <c r="E1007" s="2"/>
+      <c r="F1007" s="2"/>
+      <c r="G1007" s="2"/>
+      <c r="H1007" s="2"/>
+      <c r="I1007" s="2"/>
+      <c r="J1007" s="2"/>
+      <c r="K1007" s="2"/>
+      <c r="L1007" s="2"/>
+      <c r="M1007" s="2"/>
+      <c r="N1007" s="2"/>
+      <c r="O1007" s="2"/>
+      <c r="P1007" s="2"/>
+      <c r="Q1007" s="2"/>
+      <c r="R1007" s="2"/>
+      <c r="S1007" s="2"/>
+      <c r="T1007" s="2"/>
+      <c r="U1007" s="2"/>
+      <c r="V1007" s="2"/>
+      <c r="W1007" s="2"/>
+      <c r="X1007" s="2"/>
+      <c r="Y1007" s="2"/>
+      <c r="Z1007" s="2"/>
+      <c r="AA1007" s="2"/>
+      <c r="AB1007" s="2"/>
+      <c r="AC1007" s="2"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="2"/>
+      <c r="B1008" s="2"/>
+      <c r="C1008" s="2"/>
+      <c r="D1008" s="2"/>
+      <c r="E1008" s="2"/>
+      <c r="F1008" s="2"/>
+      <c r="G1008" s="2"/>
+      <c r="H1008" s="2"/>
+      <c r="I1008" s="2"/>
+      <c r="J1008" s="2"/>
+      <c r="K1008" s="2"/>
+      <c r="L1008" s="2"/>
+      <c r="M1008" s="2"/>
+      <c r="N1008" s="2"/>
+      <c r="O1008" s="2"/>
+      <c r="P1008" s="2"/>
+      <c r="Q1008" s="2"/>
+      <c r="R1008" s="2"/>
+      <c r="S1008" s="2"/>
+      <c r="T1008" s="2"/>
+      <c r="U1008" s="2"/>
+      <c r="V1008" s="2"/>
+      <c r="W1008" s="2"/>
+      <c r="X1008" s="2"/>
+      <c r="Y1008" s="2"/>
+      <c r="Z1008" s="2"/>
+      <c r="AA1008" s="2"/>
+      <c r="AB1008" s="2"/>
+      <c r="AC1008" s="2"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="2"/>
+      <c r="B1009" s="2"/>
+      <c r="C1009" s="2"/>
+      <c r="D1009" s="2"/>
+      <c r="E1009" s="2"/>
+      <c r="F1009" s="2"/>
+      <c r="G1009" s="2"/>
+      <c r="H1009" s="2"/>
+      <c r="I1009" s="2"/>
+      <c r="J1009" s="2"/>
+      <c r="K1009" s="2"/>
+      <c r="L1009" s="2"/>
+      <c r="M1009" s="2"/>
+      <c r="N1009" s="2"/>
+      <c r="O1009" s="2"/>
+      <c r="P1009" s="2"/>
+      <c r="Q1009" s="2"/>
+      <c r="R1009" s="2"/>
+      <c r="S1009" s="2"/>
+      <c r="T1009" s="2"/>
+      <c r="U1009" s="2"/>
+      <c r="V1009" s="2"/>
+      <c r="W1009" s="2"/>
+      <c r="X1009" s="2"/>
+      <c r="Y1009" s="2"/>
+      <c r="Z1009" s="2"/>
+      <c r="AA1009" s="2"/>
+      <c r="AB1009" s="2"/>
+      <c r="AC1009" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="E13:E16"/>
     <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="E20:E22"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="J8:J27"/>
-    <mergeCell ref="L8:L27"/>
-    <mergeCell ref="M8:M20"/>
-    <mergeCell ref="M23:M27"/>
+    <mergeCell ref="M31:M35"/>
+    <mergeCell ref="J8:J35"/>
+    <mergeCell ref="L8:L35"/>
+    <mergeCell ref="M8:M28"/>
+    <mergeCell ref="E23:E27"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -32305,7 +32795,7 @@
       <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="39" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -32347,29 +32837,29 @@
       <c r="AA7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="34" t="s">
-        <v>73</v>
+      <c r="A8" s="40" t="s">
+        <v>88</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>74</v>
+      <c r="B8" s="41" t="s">
+        <v>89</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="35" t="s">
-        <v>75</v>
+      <c r="D8" s="41" t="s">
+        <v>90</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35" t="s">
-        <v>76</v>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41" t="s">
+        <v>91</v>
       </c>
       <c r="G8" s="27"/>
-      <c r="H8" s="36"/>
+      <c r="H8" s="42"/>
       <c r="I8" s="26"/>
-      <c r="J8" s="37" t="s">
-        <v>77</v>
+      <c r="J8" s="43" t="s">
+        <v>92</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="44">
         <v>45091.0</v>
       </c>
       <c r="L8" s="2"/>
@@ -32390,27 +32880,27 @@
       <c r="AA8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="34" t="s">
-        <v>78</v>
+      <c r="A9" s="40" t="s">
+        <v>93</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>79</v>
+      <c r="B9" s="45" t="s">
+        <v>94</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="39" t="s">
-        <v>80</v>
+      <c r="D9" s="45" t="s">
+        <v>95</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35" t="s">
-        <v>81</v>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41" t="s">
+        <v>96</v>
       </c>
       <c r="G9" s="27"/>
-      <c r="H9" s="40"/>
+      <c r="H9" s="46"/>
       <c r="I9" s="26"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -32429,27 +32919,27 @@
       <c r="AA9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="34" t="s">
-        <v>82</v>
+      <c r="A10" s="40" t="s">
+        <v>97</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="35" t="s">
-        <v>84</v>
+      <c r="D10" s="41" t="s">
+        <v>99</v>
       </c>
-      <c r="E10" s="35"/>
+      <c r="E10" s="41"/>
       <c r="F10" s="26" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="G10" s="27"/>
-      <c r="H10" s="40"/>
+      <c r="H10" s="46"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -32468,29 +32958,29 @@
       <c r="AA10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="34" t="s">
-        <v>86</v>
+      <c r="A11" s="40" t="s">
+        <v>101</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E11" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="33" t="s">
-        <v>89</v>
+      <c r="F11" s="39" t="s">
+        <v>104</v>
       </c>
       <c r="G11" s="27"/>
-      <c r="H11" s="40"/>
+      <c r="H11" s="46"/>
       <c r="I11" s="26"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -32509,29 +32999,29 @@
       <c r="AA11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="34" t="s">
-        <v>90</v>
+      <c r="A12" s="40" t="s">
+        <v>105</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E12" s="26" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="G12" s="27"/>
-      <c r="H12" s="40"/>
+      <c r="H12" s="46"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -32550,17 +33040,17 @@
       <c r="AA12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="34" t="s">
-        <v>94</v>
+      <c r="A13" s="40" t="s">
+        <v>109</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E13" s="26" t="s">
         <v>47</v>
@@ -32569,10 +33059,10 @@
         <v>48</v>
       </c>
       <c r="G13" s="27"/>
-      <c r="H13" s="40"/>
+      <c r="H13" s="46"/>
       <c r="I13" s="26"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -32591,27 +33081,27 @@
       <c r="AA13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="34" t="s">
-        <v>97</v>
+      <c r="A14" s="40" t="s">
+        <v>112</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="35" t="s">
-        <v>99</v>
+      <c r="D14" s="41" t="s">
+        <v>114</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="27" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="G14" s="27"/>
-      <c r="H14" s="40"/>
+      <c r="H14" s="46"/>
       <c r="I14" s="26"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -32630,29 +33120,29 @@
       <c r="AA14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="34" t="s">
-        <v>101</v>
+      <c r="A15" s="40" t="s">
+        <v>116</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>102</v>
+      <c r="B15" s="41" t="s">
+        <v>117</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="35" t="s">
-        <v>103</v>
+      <c r="D15" s="41" t="s">
+        <v>118</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>53</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="G15" s="27"/>
-      <c r="H15" s="40"/>
+      <c r="H15" s="46"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -32671,17 +33161,17 @@
       <c r="AA15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="34" t="s">
-        <v>105</v>
+      <c r="A16" s="40" t="s">
+        <v>120</v>
       </c>
-      <c r="B16" s="35" t="s">
-        <v>106</v>
+      <c r="B16" s="41" t="s">
+        <v>121</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="35" t="s">
-        <v>107</v>
+      <c r="D16" s="41" t="s">
+        <v>122</v>
       </c>
       <c r="E16" s="26" t="s">
         <v>56</v>
@@ -32690,10 +33180,10 @@
         <v>48</v>
       </c>
       <c r="G16" s="27"/>
-      <c r="H16" s="40"/>
+      <c r="H16" s="46"/>
       <c r="I16" s="26"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -32712,27 +33202,27 @@
       <c r="AA16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="34" t="s">
-        <v>108</v>
+      <c r="A17" s="40" t="s">
+        <v>123</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="G17" s="27"/>
-      <c r="H17" s="40"/>
+      <c r="H17" s="46"/>
       <c r="I17" s="26"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -32751,27 +33241,27 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="34" t="s">
-        <v>112</v>
+      <c r="A18" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="26" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G18" s="26"/>
-      <c r="H18" s="40"/>
+      <c r="H18" s="46"/>
       <c r="I18" s="26"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -32790,29 +33280,29 @@
       <c r="AA18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="34" t="s">
-        <v>115</v>
+      <c r="A19" s="40" t="s">
+        <v>130</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
-      <c r="E19" s="41" t="s">
-        <v>118</v>
+      <c r="E19" s="47" t="s">
+        <v>133</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="G19" s="26"/>
-      <c r="H19" s="40"/>
+      <c r="H19" s="46"/>
       <c r="I19" s="26"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -32831,27 +33321,27 @@
       <c r="AA19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="34" t="s">
-        <v>120</v>
+      <c r="A20" s="40" t="s">
+        <v>135</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="26" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="G20" s="26"/>
-      <c r="H20" s="40"/>
+      <c r="H20" s="46"/>
       <c r="I20" s="26"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -32870,29 +33360,29 @@
       <c r="AA20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="34" t="s">
-        <v>124</v>
+      <c r="A21" s="40" t="s">
+        <v>139</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="C21" s="27" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
-      <c r="E21" s="41" t="s">
-        <v>118</v>
+      <c r="E21" s="47" t="s">
+        <v>133</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G21" s="26"/>
-      <c r="H21" s="40"/>
+      <c r="H21" s="46"/>
       <c r="I21" s="26"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -32911,29 +33401,29 @@
       <c r="AA21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="34" t="s">
-        <v>128</v>
+      <c r="A22" s="40" t="s">
+        <v>143</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="47">
         <v>20.0</v>
       </c>
       <c r="F22" s="26" t="s">
         <v>48</v>
       </c>
       <c r="G22" s="26"/>
-      <c r="H22" s="40"/>
+      <c r="H22" s="46"/>
       <c r="I22" s="26"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -32952,27 +33442,27 @@
       <c r="AA22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="34" t="s">
-        <v>131</v>
+      <c r="A23" s="40" t="s">
+        <v>146</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="G23" s="26"/>
-      <c r="H23" s="40"/>
+      <c r="H23" s="46"/>
       <c r="I23" s="26"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -32991,27 +33481,27 @@
       <c r="AA23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="34" t="s">
-        <v>135</v>
+      <c r="A24" s="40" t="s">
+        <v>150</v>
       </c>
-      <c r="B24" s="43" t="s">
-        <v>136</v>
+      <c r="B24" s="49" t="s">
+        <v>151</v>
       </c>
       <c r="C24" s="27" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="26" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="G24" s="26"/>
-      <c r="H24" s="12"/>
+      <c r="H24" s="46"/>
       <c r="I24" s="26"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -33030,17 +33520,27 @@
       <c r="AA24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="A25" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" s="52"/>
+      <c r="F25" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="19"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -33059,17 +33559,29 @@
       <c r="AA25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="A26" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="E26" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="G26" s="19"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -33088,17 +33600,29 @@
       <c r="AA26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="A27" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="E27" s="57">
+        <v>45067.0</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -33117,17 +33641,27 @@
       <c r="AA27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="A28" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="E28" s="58"/>
+      <c r="F28" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -33146,17 +33680,27 @@
       <c r="AA28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="A29" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29" s="59"/>
+      <c r="F29" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -33175,17 +33719,29 @@
       <c r="AA29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
+      <c r="A30" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30" s="57">
+        <v>45220.0</v>
+      </c>
+      <c r="F30" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -33204,17 +33760,29 @@
       <c r="AA30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
+      <c r="A31" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="F31" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -33233,17 +33801,29 @@
       <c r="AA31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
+      <c r="A32" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="E32" s="57">
+        <v>44630.0</v>
+      </c>
+      <c r="F32" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -61484,9 +62064,9 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="H8:H24"/>
-    <mergeCell ref="J8:J24"/>
-    <mergeCell ref="K8:K24"/>
+    <mergeCell ref="H8:H32"/>
+    <mergeCell ref="J8:J32"/>
+    <mergeCell ref="K8:K32"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
